--- a/documentation/Asset List.xlsx
+++ b/documentation/Asset List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\.School\Year 4\Spring 2195\IGME671\Final Project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC23CC5E-75AF-4BA8-8CE1-3231956CFA27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56D5168-D64D-46A7-8E42-76417EE9CE52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38190" yWindow="7095" windowWidth="18915" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18915" yWindow="2025" windowWidth="18915" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Interface</t>
   </si>
   <si>
@@ -51,58 +45,130 @@
     <t>Sound Effect</t>
   </si>
   <si>
-    <t>Confetti</t>
-  </si>
-  <si>
-    <t>Fireworks</t>
-  </si>
-  <si>
-    <t>Woosh</t>
-  </si>
-  <si>
-    <t>quiet woosh sound, reinforces transition between different menus</t>
-  </si>
-  <si>
-    <t>Button Press</t>
-  </si>
-  <si>
-    <t>click-like sound, lower pitch, emphasizes button press</t>
-  </si>
-  <si>
-    <t>Point Award</t>
-  </si>
-  <si>
-    <t>ding sound, high pitch, used to reinforce being awarded points</t>
-  </si>
-  <si>
-    <t>soft sound of popping confetti, used to exagerate the results streen</t>
-  </si>
-  <si>
-    <t>Point Subtract</t>
-  </si>
-  <si>
-    <t>soft explosion of fireworks used to exagerate the results screen</t>
-  </si>
-  <si>
-    <t>Card Flip</t>
-  </si>
-  <si>
-    <t>used to exagerate question selection</t>
-  </si>
-  <si>
-    <t>fast-paced high-energy music that plays in the background of the menu</t>
-  </si>
-  <si>
-    <t>Menu Background Music</t>
-  </si>
-  <si>
-    <t>GameBackground Music</t>
-  </si>
-  <si>
-    <t>low, medium-paced medium-energy music that plays in the background of the menu</t>
-  </si>
-  <si>
-    <t>ding sound, low pitch, used to reinforce removing points</t>
+    <t>Dialog</t>
+  </si>
+  <si>
+    <t>Asset(s) Required</t>
+  </si>
+  <si>
+    <t>Menu Selection Change</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Menu Transition</t>
+  </si>
+  <si>
+    <t>Menu Selection</t>
+  </si>
+  <si>
+    <t>paintbrush brush sound, medium pitch, reinforces change of selected item</t>
+  </si>
+  <si>
+    <t>Paintbrush Sound</t>
+  </si>
+  <si>
+    <t>inkblot sound, medium pitch, reinforces menu item slection</t>
+  </si>
+  <si>
+    <t>Main Menu Music</t>
+  </si>
+  <si>
+    <t>light-hearted, slow and tranquil music that plays in the background of the main menu screen</t>
+  </si>
+  <si>
+    <t>Inkblot Sound</t>
+  </si>
+  <si>
+    <t>quiet sound of a light breeze and birds chirping, breaths life into and grounds the location of the game</t>
+  </si>
+  <si>
+    <t>Japanese Garden Ambiance Sounds</t>
+  </si>
+  <si>
+    <t>Player Death</t>
+  </si>
+  <si>
+    <t>quiet, slow woosh sound, reinforces transition between different menus</t>
+  </si>
+  <si>
+    <t>the quick sound of a rush of air, used to exagerate the death of a player</t>
+  </si>
+  <si>
+    <t>Slow Woosh Sound</t>
+  </si>
+  <si>
+    <t>Fast Woosh Sound</t>
+  </si>
+  <si>
+    <t>Player Hit</t>
+  </si>
+  <si>
+    <t>Slap Sound</t>
+  </si>
+  <si>
+    <t>Fight Music</t>
+  </si>
+  <si>
+    <t>Sword Hit</t>
+  </si>
+  <si>
+    <t>the sharp, high-pitched clink of metal hitting metal, used to exagerate when swords hit eachother</t>
+  </si>
+  <si>
+    <t>Clink Sound</t>
+  </si>
+  <si>
+    <t>Cheering</t>
+  </si>
+  <si>
+    <t>medium-volume, crowd cheering when the winner is being announced.</t>
+  </si>
+  <si>
+    <t>Cheer Sound</t>
+  </si>
+  <si>
+    <t>Victory Music</t>
+  </si>
+  <si>
+    <t>happy, high energy music that plays in the background when the winner is being announced in the vicotry circle</t>
+  </si>
+  <si>
+    <t>the dampened sound of a slap, used to exagerate when a player hits another player with their sword or body</t>
+  </si>
+  <si>
+    <t>the sliding and/or tapping of an object across a surface, used to exagerate when a player hits or slides across the floor</t>
+  </si>
+  <si>
+    <t>Walking on Dirt Sound, Sliding on Dirt Sound</t>
+  </si>
+  <si>
+    <t>Player Walk</t>
+  </si>
+  <si>
+    <t>a few different tracks of loud, fast-paced, high energy music that plays in the background of the fight</t>
+  </si>
+  <si>
+    <t>Garden Ambience</t>
+  </si>
+  <si>
+    <t>Voiceover</t>
+  </si>
+  <si>
+    <t>Game Countdown, Winner Announcement, Game End Announcement</t>
+  </si>
+  <si>
+    <t>Battle Song (x3)</t>
+  </si>
+  <si>
+    <t>Tranquil Song</t>
+  </si>
+  <si>
+    <t>Victory Circle Song</t>
+  </si>
+  <si>
+    <t>enthusiastic commentator to introduce gamemodes, countdown to start the game, and announce the winner</t>
   </si>
 </sst>
 </file>
@@ -117,12 +183,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -165,10 +232,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -391,193 +461,269 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
-    <col min="3" max="3" width="59.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="93.21875" customWidth="1"/>
     <col min="4" max="4" width="36.77734375" customWidth="1"/>
     <col min="5" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/documentation/Asset List.xlsx
+++ b/documentation/Asset List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\.School\Year 4\Spring 2195\IGME671\Final Project\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\.School\Year 4\Spring 2195\IGME671\IGME671-Final-Project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56D5168-D64D-46A7-8E42-76417EE9CE52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808CD14D-635D-4D3D-9118-6DE93F99CCC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18915" yWindow="2025" windowWidth="18915" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Interface</t>
   </si>
   <si>
@@ -69,18 +66,12 @@
     <t>Paintbrush Sound</t>
   </si>
   <si>
-    <t>inkblot sound, medium pitch, reinforces menu item slection</t>
-  </si>
-  <si>
     <t>Main Menu Music</t>
   </si>
   <si>
     <t>light-hearted, slow and tranquil music that plays in the background of the main menu screen</t>
   </si>
   <si>
-    <t>Inkblot Sound</t>
-  </si>
-  <si>
     <t>quiet sound of a light breeze and birds chirping, breaths life into and grounds the location of the game</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>the sliding and/or tapping of an object across a surface, used to exagerate when a player hits or slides across the floor</t>
   </si>
   <si>
-    <t>Walking on Dirt Sound, Sliding on Dirt Sound</t>
-  </si>
-  <si>
     <t>Player Walk</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
     <t>Game Countdown, Winner Announcement, Game End Announcement</t>
   </si>
   <si>
-    <t>Battle Song (x3)</t>
-  </si>
-  <si>
     <t>Tranquil Song</t>
   </si>
   <si>
@@ -169,13 +154,79 @@
   </si>
   <si>
     <t>enthusiastic commentator to introduce gamemodes, countdown to start the game, and announce the winner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/vckhaze/sounds/380698/</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Sound Description</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/LG/sounds/71432/</t>
+  </si>
+  <si>
+    <t>short brush tap sound, medium pitch, reinforces menu item slection</t>
+  </si>
+  <si>
+    <t>Brush Tap Sound</t>
+  </si>
+  <si>
+    <t>Battle Song</t>
+  </si>
+  <si>
+    <t>https://files.freemusicarchive.org/storage-freemusicarchive-org/music/Oddio_Overplay/Audiotoolz/Progressive_Folk/Audiotoolz_-_02_-_Advanced_Japanese_Folk.mp3</t>
+  </si>
+  <si>
+    <t>https://files.freemusicarchive.org/storage-freemusicarchive-org/music/Breitband/The_Kyoto_Connection/The_First_Voyage/The_Kyoto_Connection_-_04_-_Voyage_I_-_The_Japanese_Garden.mp3</t>
+  </si>
+  <si>
+    <t>Needs Editing</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/InspectorJ/sounds/394427/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Kyster/sounds/187022/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/newagesoup/sounds/377830/ , https://freesound.org/people/newagesoup/sounds/377827/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/lostchocolatelab/sounds/1457/</t>
+  </si>
+  <si>
+    <t>Tap on Dirt Sound, Sliding on Dirt Sound</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/oscaraudiogeek/sounds/328937/ , https://freesound.org/people/tilano408/sounds/445655/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Johanneskristjansson/sounds/371339/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/FunWithSound/sounds/369252/</t>
+  </si>
+  <si>
+    <t>Needs Implementing</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/dersuperanton/sounds/433706/ , https://freesound.org/people/dersuperanton/sounds/433705/ , https://freesound.org/people/dersuperanton/sounds/433702/ , https://freesound.org/people/dersuperanton/sounds/433699/ ,  https://freesound.org/people/dersuperanton/sounds/435878/ , https://freesound.org/people/dersuperanton/sounds/434465/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,8 +249,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +290,23 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -228,24 +321,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,268 +608,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="93.21875" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" customWidth="1"/>
-    <col min="5" max="26" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="93.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" style="5" customWidth="1"/>
+    <col min="7" max="26" width="10.5546875" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="11.21875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="3"/>
+      <c r="E14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1693,7 +1929,22 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{ADF3792B-305F-49ED-BE50-C17E660D42F8}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{C69A0632-1162-4024-8C97-DA1AD6A18671}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{120EDD0D-C066-414B-BD28-0242F20597E3}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{416922F1-BAB8-497C-AE63-2FB070E69688}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{49EF557F-51FE-46DF-A6DD-447D717E2EA5}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{3DB3ABFF-C00E-478C-8A9E-1E10C6286EDB}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{B4D679B3-3B41-4633-A5F0-25597C6CD22D}"/>
+    <hyperlink ref="F8" r:id="rId8" display="https://freesound.org/people/newagesoup/sounds/377830/" xr:uid="{A63A5C06-669B-4F6D-A73D-C8981A16A4D4}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{DC0D1569-0FBD-454B-AAE3-052A4EBB274D}"/>
+    <hyperlink ref="F11" r:id="rId10" display="https://freesound.org/people/oscaraudiogeek/sounds/328937/" xr:uid="{5350060E-6827-464A-9A8F-B1DDD1BCAD78}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{04757672-17CE-417D-968D-4E96C5A749E4}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{4F206482-42D7-4C97-AD49-059453EA5AF3}"/>
+    <hyperlink ref="F7" r:id="rId13" display="https://freesound.org/people/dersuperanton/sounds/433706/" xr:uid="{E6259258-A875-451C-A21E-5372C349CC3A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId14"/>
 </worksheet>
 </file>
--- a/documentation/Asset List.xlsx
+++ b/documentation/Asset List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\.School\Year 4\Spring 2195\IGME671\IGME671-Final-Project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808CD14D-635D-4D3D-9118-6DE93F99CCC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27BE879-E55D-4456-B396-B05D79B86640}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23640" yWindow="2505" windowWidth="18915" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Category</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Clink Sound</t>
   </si>
   <si>
-    <t>Cheering</t>
-  </si>
-  <si>
     <t>medium-volume, crowd cheering when the winner is being announced.</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>a few different tracks of loud, fast-paced, high energy music that plays in the background of the fight</t>
   </si>
   <si>
-    <t>Garden Ambience</t>
-  </si>
-  <si>
     <t>Voiceover</t>
   </si>
   <si>
@@ -174,12 +168,6 @@
     <t>https://freesound.org/people/LG/sounds/71432/</t>
   </si>
   <si>
-    <t>short brush tap sound, medium pitch, reinforces menu item slection</t>
-  </si>
-  <si>
-    <t>Brush Tap Sound</t>
-  </si>
-  <si>
     <t>Battle Song</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
     <t>https://files.freemusicarchive.org/storage-freemusicarchive-org/music/Breitband/The_Kyoto_Connection/The_First_Voyage/The_Kyoto_Connection_-_04_-_Voyage_I_-_The_Japanese_Garden.mp3</t>
   </si>
   <si>
-    <t>Needs Editing</t>
-  </si>
-  <si>
     <t>https://freesound.org/people/InspectorJ/sounds/394427/</t>
   </si>
   <si>
@@ -220,6 +205,27 @@
   </si>
   <si>
     <t>https://freesound.org/people/dersuperanton/sounds/433706/ , https://freesound.org/people/dersuperanton/sounds/433705/ , https://freesound.org/people/dersuperanton/sounds/433702/ , https://freesound.org/people/dersuperanton/sounds/433699/ ,  https://freesound.org/people/dersuperanton/sounds/435878/ , https://freesound.org/people/dersuperanton/sounds/434465/</t>
+  </si>
+  <si>
+    <t>Mountian Ambience</t>
+  </si>
+  <si>
+    <t>Cheering Ambience</t>
+  </si>
+  <si>
+    <t>Needs Additional Editing</t>
+  </si>
+  <si>
+    <t>Gong Sound</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/vrodge/sounds/119545/</t>
+  </si>
+  <si>
+    <t>short gong ring, low pitch, reinforces menu item slection</t>
+  </si>
+  <si>
+    <t>Partially Implemented</t>
   </si>
 </sst>
 </file>
@@ -611,12 +617,12 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.21875" style="5" customWidth="1"/>
     <col min="3" max="3" width="93.21875" style="5" customWidth="1"/>
     <col min="4" max="4" width="36.77734375" style="5" customWidth="1"/>
@@ -634,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -660,10 +666,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -674,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -699,11 +705,11 @@
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>54</v>
+      <c r="E4" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -717,18 +723,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
@@ -739,171 +745,171 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>54</v>
+      <c r="E6" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>58</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="E12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1931,18 +1937,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{ADF3792B-305F-49ED-BE50-C17E660D42F8}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{C69A0632-1162-4024-8C97-DA1AD6A18671}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{C69A0632-1162-4024-8C97-DA1AD6A18671}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{120EDD0D-C066-414B-BD28-0242F20597E3}"/>
-    <hyperlink ref="F12" r:id="rId4" xr:uid="{416922F1-BAB8-497C-AE63-2FB070E69688}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{416922F1-BAB8-497C-AE63-2FB070E69688}"/>
     <hyperlink ref="F5" r:id="rId5" xr:uid="{49EF557F-51FE-46DF-A6DD-447D717E2EA5}"/>
     <hyperlink ref="F4" r:id="rId6" xr:uid="{3DB3ABFF-C00E-478C-8A9E-1E10C6286EDB}"/>
     <hyperlink ref="F6" r:id="rId7" xr:uid="{B4D679B3-3B41-4633-A5F0-25597C6CD22D}"/>
-    <hyperlink ref="F8" r:id="rId8" display="https://freesound.org/people/newagesoup/sounds/377830/" xr:uid="{A63A5C06-669B-4F6D-A73D-C8981A16A4D4}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{DC0D1569-0FBD-454B-AAE3-052A4EBB274D}"/>
-    <hyperlink ref="F11" r:id="rId10" display="https://freesound.org/people/oscaraudiogeek/sounds/328937/" xr:uid="{5350060E-6827-464A-9A8F-B1DDD1BCAD78}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{04757672-17CE-417D-968D-4E96C5A749E4}"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://freesound.org/people/newagesoup/sounds/377830/" xr:uid="{A63A5C06-669B-4F6D-A73D-C8981A16A4D4}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{DC0D1569-0FBD-454B-AAE3-052A4EBB274D}"/>
+    <hyperlink ref="F12" r:id="rId10" display="https://freesound.org/people/oscaraudiogeek/sounds/328937/" xr:uid="{5350060E-6827-464A-9A8F-B1DDD1BCAD78}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{04757672-17CE-417D-968D-4E96C5A749E4}"/>
     <hyperlink ref="F14" r:id="rId12" xr:uid="{4F206482-42D7-4C97-AD49-059453EA5AF3}"/>
-    <hyperlink ref="F7" r:id="rId13" display="https://freesound.org/people/dersuperanton/sounds/433706/" xr:uid="{E6259258-A875-451C-A21E-5372C349CC3A}"/>
+    <hyperlink ref="F8" r:id="rId13" display="https://freesound.org/people/dersuperanton/sounds/433706/" xr:uid="{E6259258-A875-451C-A21E-5372C349CC3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId14"/>

--- a/documentation/Asset List.xlsx
+++ b/documentation/Asset List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\.School\Year 4\Spring 2195\IGME671\IGME671-Final-Project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27BE879-E55D-4456-B396-B05D79B86640}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064ABEE6-23D6-4F89-BFAA-C8DDFB888991}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23640" yWindow="2505" windowWidth="18915" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="885" windowWidth="18915" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Category</t>
   </si>
@@ -42,21 +42,12 @@
     <t>Sound Effect</t>
   </si>
   <si>
-    <t>Dialog</t>
-  </si>
-  <si>
     <t>Asset(s) Required</t>
   </si>
   <si>
-    <t>Menu Selection Change</t>
-  </si>
-  <si>
     <t>Event Name</t>
   </si>
   <si>
-    <t>Menu Transition</t>
-  </si>
-  <si>
     <t>Menu Selection</t>
   </si>
   <si>
@@ -81,15 +72,6 @@
     <t>Player Death</t>
   </si>
   <si>
-    <t>quiet, slow woosh sound, reinforces transition between different menus</t>
-  </si>
-  <si>
-    <t>the quick sound of a rush of air, used to exagerate the death of a player</t>
-  </si>
-  <si>
-    <t>Slow Woosh Sound</t>
-  </si>
-  <si>
     <t>Fast Woosh Sound</t>
   </si>
   <si>
@@ -177,9 +159,6 @@
     <t>https://files.freemusicarchive.org/storage-freemusicarchive-org/music/Breitband/The_Kyoto_Connection/The_First_Voyage/The_Kyoto_Connection_-_04_-_Voyage_I_-_The_Japanese_Garden.mp3</t>
   </si>
   <si>
-    <t>https://freesound.org/people/InspectorJ/sounds/394427/</t>
-  </si>
-  <si>
     <t>https://freesound.org/people/Kyster/sounds/187022/</t>
   </si>
   <si>
@@ -192,30 +171,18 @@
     <t>Tap on Dirt Sound, Sliding on Dirt Sound</t>
   </si>
   <si>
-    <t>https://freesound.org/people/oscaraudiogeek/sounds/328937/ , https://freesound.org/people/tilano408/sounds/445655/</t>
-  </si>
-  <si>
     <t>https://freesound.org/people/Johanneskristjansson/sounds/371339/</t>
   </si>
   <si>
     <t>https://freesound.org/people/FunWithSound/sounds/369252/</t>
   </si>
   <si>
-    <t>Needs Implementing</t>
-  </si>
-  <si>
-    <t>https://freesound.org/people/dersuperanton/sounds/433706/ , https://freesound.org/people/dersuperanton/sounds/433705/ , https://freesound.org/people/dersuperanton/sounds/433702/ , https://freesound.org/people/dersuperanton/sounds/433699/ ,  https://freesound.org/people/dersuperanton/sounds/435878/ , https://freesound.org/people/dersuperanton/sounds/434465/</t>
-  </si>
-  <si>
     <t>Mountian Ambience</t>
   </si>
   <si>
     <t>Cheering Ambience</t>
   </si>
   <si>
-    <t>Needs Additional Editing</t>
-  </si>
-  <si>
     <t>Gong Sound</t>
   </si>
   <si>
@@ -225,14 +192,26 @@
     <t>short gong ring, low pitch, reinforces menu item slection</t>
   </si>
   <si>
-    <t>Partially Implemented</t>
+    <t>Pause Menu</t>
+  </si>
+  <si>
+    <t>the quick sound of a rush/hiss of air, used to exagerate the death of a player</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/dersuperanton/sounds/433706/ ,  https://freesound.org/people/dersuperanton/sounds/435878/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/oscaraudiogeek/sounds/328937/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,27 +242,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,18 +266,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,30 +282,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -376,31 +314,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -634,22 +564,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -660,287 +590,274 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
+      <c r="A4" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>56</v>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
+      <c r="A9" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>52</v>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>62</v>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>24</v>
+      <c r="A13" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="6"/>
-    </row>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+    </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+    </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
     </row>
@@ -950,20 +867,12 @@
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1937,20 +1846,19 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{ADF3792B-305F-49ED-BE50-C17E660D42F8}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{C69A0632-1162-4024-8C97-DA1AD6A18671}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{C69A0632-1162-4024-8C97-DA1AD6A18671}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{120EDD0D-C066-414B-BD28-0242F20597E3}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{416922F1-BAB8-497C-AE63-2FB070E69688}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{49EF557F-51FE-46DF-A6DD-447D717E2EA5}"/>
-    <hyperlink ref="F4" r:id="rId6" xr:uid="{3DB3ABFF-C00E-478C-8A9E-1E10C6286EDB}"/>
-    <hyperlink ref="F6" r:id="rId7" xr:uid="{B4D679B3-3B41-4633-A5F0-25597C6CD22D}"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://freesound.org/people/newagesoup/sounds/377830/" xr:uid="{A63A5C06-669B-4F6D-A73D-C8981A16A4D4}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{DC0D1569-0FBD-454B-AAE3-052A4EBB274D}"/>
-    <hyperlink ref="F12" r:id="rId10" display="https://freesound.org/people/oscaraudiogeek/sounds/328937/" xr:uid="{5350060E-6827-464A-9A8F-B1DDD1BCAD78}"/>
-    <hyperlink ref="F7" r:id="rId11" xr:uid="{04757672-17CE-417D-968D-4E96C5A749E4}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{4F206482-42D7-4C97-AD49-059453EA5AF3}"/>
-    <hyperlink ref="F8" r:id="rId13" display="https://freesound.org/people/dersuperanton/sounds/433706/" xr:uid="{E6259258-A875-451C-A21E-5372C349CC3A}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{416922F1-BAB8-497C-AE63-2FB070E69688}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{B4D679B3-3B41-4633-A5F0-25597C6CD22D}"/>
+    <hyperlink ref="F7" r:id="rId6" display="https://freesound.org/people/newagesoup/sounds/377830/" xr:uid="{A63A5C06-669B-4F6D-A73D-C8981A16A4D4}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{DC0D1569-0FBD-454B-AAE3-052A4EBB274D}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{5350060E-6827-464A-9A8F-B1DDD1BCAD78}"/>
+    <hyperlink ref="F5" r:id="rId9" xr:uid="{04757672-17CE-417D-968D-4E96C5A749E4}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{4F206482-42D7-4C97-AD49-059453EA5AF3}"/>
+    <hyperlink ref="F6" r:id="rId11" display="https://freesound.org/people/dersuperanton/sounds/433706/" xr:uid="{E6259258-A875-451C-A21E-5372C349CC3A}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{26E4B216-7A25-43EB-B076-46EB5205B1C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId14"/>
+  <pageSetup orientation="landscape" r:id="rId13"/>
 </worksheet>
 </file>